--- a/אקסל שאלות + התשובה הנכונה.xlsx
+++ b/אקסל שאלות + התשובה הנכונה.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="336">
   <si>
     <t>question</t>
   </si>
@@ -1222,19 +1222,15 @@
   <si>
     <t xml:space="preserve">מפחיתה את הצורך בשימוש בפרוטוקול ניסוי </t>
   </si>
+  <si>
+    <t xml:space="preserve">ניתן לשמור את התיעוד ללא צורך בהצפנה </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1294,7 +1290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1580,8 +1576,8 @@
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,7 +1655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1682,7 +1678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1728,7 +1724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3010,7 +3006,7 @@
         <v>299</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>298</v>
